--- a/StructureDefinition-med-request-profile.xlsx
+++ b/StructureDefinition-med-request-profile.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$62</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="468">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Example Patient Profile</t>
+    <t>Perfil informação de receita</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T08:24:07+00:00</t>
+    <t>2022-07-14T09:12:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -576,6 +579,9 @@
 This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
   </si>
   <si>
+    <t>order</t>
+  </si>
+  <si>
     <t>The kind of medication order.</t>
   </si>
   <si>
@@ -681,8 +687,8 @@
     <t>MedicationRequest.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference(Medication)</t>
+    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/med-pemh-profile)
+</t>
   </si>
   <si>
     <t>Medication to be taken</t>
@@ -692,12 +698,6 @@
   </si>
   <si>
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying substance or product that can be ordered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1610,6 +1610,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1967,7 +1982,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2089,13 +2104,13 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>80</v>
@@ -2193,7 +2208,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>95</v>
       </c>
@@ -2305,7 +2320,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>101</v>
       </c>
@@ -2419,7 +2434,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>107</v>
       </c>
@@ -2533,7 +2548,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -2647,7 +2662,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -2761,7 +2776,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>132</v>
       </c>
@@ -2875,7 +2890,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -2991,7 +3006,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -3105,7 +3120,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>155</v>
       </c>
@@ -3219,7 +3234,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>166</v>
       </c>
@@ -3333,7 +3348,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>176</v>
       </c>
@@ -3378,7 +3393,7 @@
         <v>80</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>80</v>
@@ -3396,10 +3411,10 @@
         <v>159</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>80</v>
@@ -3432,24 +3447,24 @@
         <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3475,13 +3490,13 @@
         <v>167</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3510,10 +3525,10 @@
         <v>171</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>80</v>
@@ -3531,7 +3546,7 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3549,21 +3564,21 @@
         <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3589,10 +3604,10 @@
         <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3622,10 +3637,10 @@
         <v>159</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>80</v>
@@ -3643,7 +3658,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3658,24 +3673,24 @@
         <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3698,16 +3713,16 @@
         <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3757,7 +3772,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3778,7 +3793,7 @@
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
@@ -3787,9 +3802,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3812,13 +3827,13 @@
         <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3869,7 +3884,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -3890,7 +3905,7 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
@@ -3899,9 +3914,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3924,16 +3939,16 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3959,13 +3974,13 @@
         <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>80</v>
@@ -3983,7 +3998,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>88</v>
@@ -3998,24 +4013,24 @@
         <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AN19" t="s" s="2">
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
         <v>223</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4038,16 +4053,16 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4097,7 +4112,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>88</v>
@@ -4112,24 +4127,24 @@
         <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AN20" t="s" s="2">
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
         <v>233</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4152,16 +4167,16 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4211,7 +4226,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4226,24 +4241,24 @@
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>163</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AN21" t="s" s="2">
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
         <v>242</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4266,13 +4281,13 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4323,7 +4338,7 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4338,24 +4353,24 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4363,7 +4378,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>88</v>
@@ -4378,13 +4393,13 @@
         <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4435,7 +4450,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4450,24 +4465,24 @@
         <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AN23" t="s" s="2">
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
         <v>257</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4490,13 +4505,13 @@
         <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4547,7 +4562,7 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4562,24 +4577,24 @@
         <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AK24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4602,13 +4617,13 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4659,7 +4674,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4674,24 +4689,24 @@
         <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4717,13 +4732,13 @@
         <v>167</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4752,11 +4767,11 @@
         <v>171</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4773,7 +4788,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4788,24 +4803,24 @@
         <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AK26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4828,13 +4843,13 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4885,7 +4900,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4906,18 +4921,18 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4943,13 +4958,13 @@
         <v>167</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4978,11 +4993,11 @@
         <v>171</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>80</v>
       </c>
@@ -4999,7 +5014,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5014,24 +5029,24 @@
         <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AN28" t="s" s="2">
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
         <v>295</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5054,16 +5069,16 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5113,7 +5128,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5128,24 +5143,24 @@
         <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>163</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5168,13 +5183,13 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5225,7 +5240,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5240,24 +5255,24 @@
         <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AK30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5283,10 +5298,10 @@
         <v>102</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5337,7 +5352,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5358,7 +5373,7 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5367,9 +5382,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5392,13 +5407,13 @@
         <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5449,7 +5464,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5464,13 +5479,13 @@
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5481,7 +5496,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5489,13 +5504,13 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5507,14 +5522,14 @@
         <v>146</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -5563,7 +5578,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5578,24 +5593,24 @@
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5621,13 +5636,13 @@
         <v>167</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5656,11 +5671,11 @@
         <v>171</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5677,7 +5692,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5698,18 +5713,18 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5732,13 +5747,13 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5789,7 +5804,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5804,24 +5819,24 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5844,13 +5859,13 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5901,7 +5916,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5916,24 +5931,24 @@
         <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5956,16 +5971,16 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6015,7 +6030,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6030,24 +6045,24 @@
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6070,13 +6085,13 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6127,7 +6142,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6145,21 +6160,21 @@
         <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6185,10 +6200,10 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6239,7 +6254,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6260,18 +6275,18 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6300,7 +6315,7 @@
         <v>135</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>137</v>
@@ -6353,7 +6368,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6374,7 +6389,7 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6383,13 +6398,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6411,10 +6426,10 @@
         <v>134</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>137</v>
@@ -6469,7 +6484,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6499,9 +6514,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6524,16 +6539,16 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6583,7 +6598,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6604,18 +6619,18 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6641,10 +6656,10 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6695,7 +6710,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6716,7 +6731,7 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -6725,9 +6740,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6756,7 +6771,7 @@
         <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>137</v>
@@ -6809,7 +6824,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6830,7 +6845,7 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -6839,13 +6854,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6867,10 +6882,10 @@
         <v>134</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>137</v>
@@ -6925,7 +6940,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6955,9 +6970,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6980,13 +6995,13 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7037,7 +7052,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7058,18 +7073,18 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7092,13 +7107,13 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7149,7 +7164,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7170,18 +7185,18 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7204,13 +7219,13 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7261,7 +7276,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7282,7 +7297,7 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7291,9 +7306,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7316,19 +7331,19 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7377,7 +7392,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7395,21 +7410,21 @@
         <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7432,16 +7447,16 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7491,7 +7506,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7509,21 +7524,21 @@
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AM50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN50" t="s" s="2">
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
         <v>406</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7546,13 +7561,13 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7603,7 +7618,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7621,21 +7636,21 @@
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AM51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN51" t="s" s="2">
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
         <v>412</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7658,16 +7673,16 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7717,7 +7732,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7735,21 +7750,21 @@
         <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7772,13 +7787,13 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7829,7 +7844,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7850,18 +7865,18 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7884,13 +7899,13 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7941,7 +7956,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -7959,21 +7974,21 @@
         <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7999,10 +8014,10 @@
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8053,7 +8068,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8074,7 +8089,7 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8083,9 +8098,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8114,7 +8129,7 @@
         <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>137</v>
@@ -8167,7 +8182,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8188,7 +8203,7 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8197,13 +8212,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8225,10 +8240,10 @@
         <v>134</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>137</v>
@@ -8283,7 +8298,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8313,9 +8328,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8338,16 +8353,16 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8376,11 +8391,11 @@
         <v>171</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>438</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8397,7 +8412,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>88</v>
@@ -8415,21 +8430,21 @@
         <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AM58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN58" t="s" s="2">
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
         <v>440</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8455,10 +8470,10 @@
         <v>167</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8488,11 +8503,11 @@
         <v>171</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>445</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8509,7 +8524,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8527,21 +8542,21 @@
         <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AM59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN59" t="s" s="2">
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
         <v>448</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8564,13 +8579,13 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8621,7 +8636,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8636,28 +8651,28 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AK60" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8676,16 +8691,16 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8735,7 +8750,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8756,18 +8771,18 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8790,16 +8805,16 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8849,7 +8864,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8864,13 +8879,13 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -8880,6 +8895,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN62">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI61">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-med-request-profile.xlsx
+++ b/StructureDefinition-med-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:12:07+00:00</t>
+    <t>2022-07-14T09:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-request-profile.xlsx
+++ b/StructureDefinition-med-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:51:10+00:00</t>
+    <t>2022-07-14T10:13:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-request-profile.xlsx
+++ b/StructureDefinition-med-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:13:19+00:00</t>
+    <t>2022-07-14T10:27:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-request-profile.xlsx
+++ b/StructureDefinition-med-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:27:58+00:00</t>
+    <t>2022-07-14T10:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-request-profile.xlsx
+++ b/StructureDefinition-med-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:47:14+00:00</t>
+    <t>2022-07-14T11:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-request-profile.xlsx
+++ b/StructureDefinition-med-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:00:22+00:00</t>
+    <t>2022-07-14T11:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-request-profile.xlsx
+++ b/StructureDefinition-med-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:39:56+00:00</t>
+    <t>2022-07-14T12:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-request-profile.xlsx
+++ b/StructureDefinition-med-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:13:58+00:00</t>
+    <t>2022-07-14T12:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-request-profile.xlsx
+++ b/StructureDefinition-med-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:15:20+00:00</t>
+    <t>2022-07-14T12:28:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-request-profile.xlsx
+++ b/StructureDefinition-med-request-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="469">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:28:55+00:00</t>
+    <t>2022-09-22T18:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -290,7 +290,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -1137,6 +1137,10 @@
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -6197,13 +6201,13 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>357</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6254,7 +6258,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6275,7 +6279,7 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6286,7 +6290,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6315,7 +6319,7 @@
         <v>135</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>137</v>
@@ -6368,7 +6372,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6389,7 +6393,7 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6400,11 +6404,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6426,10 +6430,10 @@
         <v>134</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>137</v>
@@ -6484,7 +6488,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6516,7 +6520,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6542,13 +6546,13 @@
         <v>351</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6598,7 +6602,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6619,7 +6623,7 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6630,7 +6634,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6653,13 +6657,13 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>357</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6710,7 +6714,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6731,7 +6735,7 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -6742,7 +6746,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6771,7 +6775,7 @@
         <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>137</v>
@@ -6824,7 +6828,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6845,7 +6849,7 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -6856,11 +6860,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6882,10 +6886,10 @@
         <v>134</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>137</v>
@@ -6940,7 +6944,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6972,7 +6976,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6995,13 +6999,13 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7052,7 +7056,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7073,7 +7077,7 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7084,7 +7088,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7107,13 +7111,13 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7164,7 +7168,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7185,7 +7189,7 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7196,7 +7200,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7219,13 +7223,13 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7276,7 +7280,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7297,7 +7301,7 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7308,7 +7312,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7331,19 +7335,19 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7392,7 +7396,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7410,10 +7414,10 @@
         <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7424,7 +7428,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7447,16 +7451,16 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7506,7 +7510,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7524,21 +7528,21 @@
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7561,13 +7565,13 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7618,7 +7622,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7636,21 +7640,21 @@
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7673,16 +7677,16 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7732,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7750,10 +7754,10 @@
         <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -7764,7 +7768,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7787,13 +7791,13 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7844,7 +7848,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7865,7 +7869,7 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>283</v>
@@ -7876,7 +7880,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7902,10 +7906,10 @@
         <v>351</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7956,7 +7960,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -7974,10 +7978,10 @@
         <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -7988,7 +7992,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8011,13 +8015,13 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>357</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8068,7 +8072,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8089,7 +8093,7 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8100,7 +8104,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8129,7 +8133,7 @@
         <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>137</v>
@@ -8182,7 +8186,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8203,7 +8207,7 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8214,11 +8218,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8240,10 +8244,10 @@
         <v>134</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>137</v>
@@ -8298,7 +8302,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8330,7 +8334,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8353,16 +8357,16 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8391,10 +8395,10 @@
         <v>171</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8412,7 +8416,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>88</v>
@@ -8430,21 +8434,21 @@
         <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8470,10 +8474,10 @@
         <v>167</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8503,10 +8507,10 @@
         <v>171</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8524,7 +8528,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8542,21 +8546,21 @@
         <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8579,13 +8583,13 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8636,7 +8640,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8651,13 +8655,13 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8668,11 +8672,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8691,16 +8695,16 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8750,7 +8754,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8771,7 +8775,7 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -8782,7 +8786,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8805,16 +8809,16 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8864,7 +8868,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8879,13 +8883,13 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-med-request-profile.xlsx
+++ b/StructureDefinition-med-request-profile.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$108</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4119" uniqueCount="715">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T20:39:01+00:00</t>
+    <t>2023-02-09T22:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -885,11 +885,11 @@
     <t>MedicationRequest.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/encounter-pemh-profile)
 </t>
   </si>
   <si>
-    <t>Created during encounter/admission/stay</t>
+    <t>Referência para um resource que contém informações do episódio no contexto em que ocorreu a prescrição</t>
   </si>
   <si>
     <t>A link to an encounter, or episode of care, that identifies the particular occurrence or set occurrences of contact between patient and health care provider.</t>
@@ -999,11 +999,11 @@
     <t>MedicationRequest.requester.agent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|Organization|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(Practitioner)
 </t>
   </si>
   <si>
-    <t>Who ordered the initial medication(s)</t>
+    <t>Referência para um resource que contém informações do profissional que inicialmente adicionou a prescrição. Este elemento não pode ser mais alterado em toda a vida do recurso.</t>
   </si>
   <si>
     <t>The healthcare professional responsible for authorizing the initial prescription.</t>
@@ -1026,6 +1026,66 @@
     <t>RXE-13-Ordering Provider's DEA Number / RXO-14-Ordering Provider's DEA Number / RXE-14-Pharmacist/Treatment Supplier's Verifier ID / RXO-15-Pharmacist/Treatment Supplier's Verifier ID / ORC-12-Ordering Provider / PRT-5-Participation Person: PRT-4-Participation='OP' (all but last deprecated)</t>
   </si>
   <si>
+    <t>MedicationRequest.requester.agent.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.requester.agent.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.requester.agent.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>MedicationRequest.requester.agent.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the other resource. This is used when there is no way to reference the other resource directly, either because the entity is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>MedicationRequest.requester.agent.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>MedicationRequest.requester.onBehalfOf</t>
   </si>
   <si>
@@ -1053,10 +1113,6 @@
   </si>
   <si>
     <t>MedicationRequest.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner)
-</t>
   </si>
   <si>
     <t>Person who entered the request</t>
@@ -1798,8 +1854,8 @@
     <t>MedicationRequest.dosageInstruction.dose[x]</t>
   </si>
   <si>
-    <t>Range
-Quantity {SimpleQuantity}</t>
+    <t xml:space="preserve">Quantity
+</t>
   </si>
   <si>
     <t>Amount of medication per dose</t>
@@ -1815,6 +1871,39 @@
   </si>
   <si>
     <t>Dosage.dose[x]</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.dose[x]:doseQuantity</t>
+  </si>
+  <si>
+    <t>doseQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>Valor e unidade do valor da dose da posologia [DOSE - VALOR E UNIDADE]</t>
+  </si>
+  <si>
+    <t>The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
@@ -1845,10 +1934,6 @@
     <t>MedicationRequest.dosageInstruction.maxDosePerAdministration</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
     <t>Upper limit on medication per administration</t>
   </si>
   <si>
@@ -1984,7 +2069,7 @@
     <t>MedicationRequest.dispenseRequest.quantity</t>
   </si>
   <si>
-    <t>Amount of medication to supply per dispense</t>
+    <t>Quantidade prescrita do medicamento (valor e unidade)</t>
   </si>
   <si>
     <t>The amount that is to be dispensed for one fill.</t>
@@ -2481,7 +2566,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP102"/>
+  <dimension ref="A1:AP108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2500,7 +2585,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.6953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6742,21 +6827,19 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>321</v>
+        <v>104</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>105</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>323</v>
+        <v>106</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>324</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
@@ -6804,7 +6887,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>107</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6813,19 +6896,19 @@
         <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>325</v>
+        <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>327</v>
+        <v>108</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>82</v>
@@ -6839,21 +6922,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6865,15 +6948,17 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>329</v>
+        <v>111</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>330</v>
+        <v>112</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6910,25 +6995,25 @@
         <v>82</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>328</v>
+        <v>118</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
@@ -6943,24 +7028,24 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>332</v>
+        <v>108</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>333</v>
+        <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>333</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6971,7 +7056,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6980,19 +7065,19 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>239</v>
+        <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -7018,13 +7103,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>338</v>
+        <v>82</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>339</v>
+        <v>82</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -7042,45 +7127,45 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>340</v>
+        <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>342</v>
+        <v>182</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7091,7 +7176,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -7100,19 +7185,19 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>346</v>
+        <v>191</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7162,13 +7247,13 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
@@ -7177,30 +7262,30 @@
         <v>82</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>350</v>
+        <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7211,7 +7296,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -7220,18 +7305,20 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>353</v>
+        <v>104</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7280,13 +7367,13 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
@@ -7295,13 +7382,13 @@
         <v>82</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>357</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>358</v>
+        <v>182</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>82</v>
@@ -7315,10 +7402,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7329,7 +7416,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -7338,21 +7425,21 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7400,28 +7487,28 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>82</v>
+        <v>344</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>82</v>
@@ -7435,10 +7522,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7461,13 +7548,13 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>104</v>
+        <v>312</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>105</v>
+        <v>348</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>106</v>
+        <v>349</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7518,7 +7605,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>107</v>
+        <v>347</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7539,28 +7626,28 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>108</v>
+        <v>350</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>82</v>
+        <v>351</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>82</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7579,16 +7666,16 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>112</v>
+        <v>353</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>113</v>
+        <v>354</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>114</v>
+        <v>355</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7614,31 +7701,31 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>118</v>
+        <v>352</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7653,30 +7740,30 @@
         <v>82</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>82</v>
+        <v>358</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>108</v>
+        <v>360</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>82</v>
+        <v>361</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>82</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7687,7 +7774,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7696,21 +7783,21 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7758,13 +7845,13 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
@@ -7773,30 +7860,30 @@
         <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>82</v>
+        <v>361</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>82</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7807,7 +7894,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7816,21 +7903,19 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>104</v>
+        <v>371</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>378</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7878,13 +7963,13 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
@@ -7893,13 +7978,13 @@
         <v>82</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>82</v>
@@ -7913,10 +7998,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7936,21 +8021,21 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>239</v>
+        <v>378</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7974,13 +8059,13 @@
         <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>82</v>
@@ -7998,7 +8083,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -8013,13 +8098,13 @@
         <v>82</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>82</v>
+        <v>382</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>82</v>
@@ -8033,10 +8118,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8056,16 +8141,16 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>104</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>388</v>
+        <v>105</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>389</v>
+        <v>106</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -8116,7 +8201,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>390</v>
+        <v>107</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8137,7 +8222,7 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>374</v>
+        <v>108</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>82</v>
@@ -8151,21 +8236,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -8174,23 +8259,21 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>392</v>
+        <v>111</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>393</v>
+        <v>112</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>394</v>
+        <v>113</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -8226,25 +8309,25 @@
         <v>82</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>397</v>
+        <v>118</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
@@ -8259,7 +8342,7 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>398</v>
+        <v>108</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>82</v>
@@ -8273,10 +8356,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8296,19 +8379,21 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>104</v>
+        <v>387</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>105</v>
+        <v>388</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
@@ -8356,7 +8441,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>107</v>
+        <v>391</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8377,7 +8462,7 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>108</v>
+        <v>392</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>82</v>
@@ -8391,21 +8476,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8414,21 +8499,21 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>112</v>
+        <v>394</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
@@ -8464,25 +8549,25 @@
         <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>118</v>
+        <v>397</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
@@ -8497,7 +8582,7 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>108</v>
+        <v>392</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>82</v>
@@ -8511,10 +8596,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8537,17 +8622,17 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8572,13 +8657,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8596,7 +8681,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8617,7 +8702,7 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
@@ -8631,10 +8716,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8657,18 +8742,16 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>408</v>
+        <v>104</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>411</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8716,7 +8799,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8728,7 +8811,7 @@
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>413</v>
+        <v>82</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
@@ -8737,7 +8820,7 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>82</v>
@@ -8751,10 +8834,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8774,19 +8857,23 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>104</v>
+        <v>410</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>105</v>
+        <v>411</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8834,7 +8921,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>107</v>
+        <v>415</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8855,7 +8942,7 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>108</v>
+        <v>416</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>82</v>
@@ -8869,21 +8956,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8895,17 +8982,15 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8942,25 +9027,25 @@
         <v>82</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
@@ -8989,21 +9074,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -9012,18 +9097,20 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>111</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
+        <v>112</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9060,23 +9147,25 @@
         <v>82</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="AD55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>422</v>
+        <v>117</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>423</v>
+        <v>118</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
@@ -9091,7 +9180,7 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>424</v>
+        <v>108</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>82</v>
@@ -9105,14 +9194,12 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>82</v>
       </c>
@@ -9121,7 +9208,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -9133,16 +9220,18 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>418</v>
+        <v>290</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
       </c>
@@ -9196,7 +9285,7 @@
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
@@ -9225,10 +9314,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9248,19 +9337,21 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>104</v>
+        <v>426</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>105</v>
+        <v>427</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>106</v>
+        <v>428</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
       </c>
@@ -9308,7 +9399,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>107</v>
+        <v>430</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9320,7 +9411,7 @@
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -9329,7 +9420,7 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>108</v>
+        <v>432</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>82</v>
@@ -9343,21 +9434,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -9369,17 +9460,15 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9416,25 +9505,25 @@
         <v>82</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
@@ -9463,21 +9552,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9486,19 +9575,19 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>290</v>
+        <v>111</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>433</v>
+        <v>112</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>434</v>
+        <v>113</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>435</v>
+        <v>114</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9536,28 +9625,28 @@
         <v>82</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>436</v>
+        <v>118</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>437</v>
+        <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>82</v>
@@ -9569,13 +9658,13 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>438</v>
+        <v>108</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>439</v>
+        <v>82</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>82</v>
@@ -9583,10 +9672,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9609,24 +9698,20 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>290</v>
+        <v>436</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q60" t="s" s="2">
-        <v>445</v>
-      </c>
+      <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9658,19 +9743,17 @@
         <v>82</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9679,7 +9762,7 @@
         <v>91</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>437</v>
+        <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>82</v>
@@ -9691,13 +9774,13 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>448</v>
+        <v>82</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>82</v>
@@ -9705,12 +9788,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9731,20 +9816,16 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>369</v>
+        <v>436</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9792,7 +9873,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9813,7 +9894,7 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>82</v>
@@ -9827,10 +9908,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9850,16 +9931,16 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>369</v>
+        <v>104</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>457</v>
+        <v>105</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>458</v>
+        <v>106</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9910,7 +9991,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>459</v>
+        <v>107</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9931,7 +10012,7 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>455</v>
+        <v>108</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>82</v>
@@ -9945,21 +10026,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9968,23 +10049,21 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>461</v>
+        <v>111</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>462</v>
+        <v>112</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>463</v>
+        <v>113</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
@@ -10020,25 +10099,25 @@
         <v>82</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>466</v>
+        <v>118</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
@@ -10053,7 +10132,7 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>467</v>
+        <v>108</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>82</v>
@@ -10067,10 +10146,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10093,20 +10172,18 @@
         <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>461</v>
+        <v>290</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
@@ -10154,7 +10231,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10163,7 +10240,7 @@
         <v>91</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>82</v>
@@ -10175,13 +10252,13 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>82</v>
+        <v>457</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -10189,10 +10266,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10215,20 +10292,24 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>159</v>
+        <v>290</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="R65" t="s" s="2">
         <v>82</v>
       </c>
@@ -10248,13 +10329,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>475</v>
+        <v>82</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>476</v>
+        <v>82</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10272,7 +10353,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10281,7 +10362,7 @@
         <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>82</v>
@@ -10293,13 +10374,13 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>82</v>
@@ -10307,10 +10388,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10333,18 +10414,22 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="P66" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
@@ -10390,7 +10475,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10411,7 +10496,7 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>82</v>
@@ -10425,10 +10510,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10451,13 +10536,13 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10508,7 +10593,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10529,7 +10614,7 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
@@ -10543,10 +10628,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10569,16 +10654,20 @@
         <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10626,7 +10715,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10647,7 +10736,7 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
@@ -10661,10 +10750,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10687,16 +10776,20 @@
         <v>92</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10744,7 +10837,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10765,7 +10858,7 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>82</v>
@@ -10779,10 +10872,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10808,10 +10901,10 @@
         <v>159</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10841,10 +10934,10 @@
         <v>221</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10862,7 +10955,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10883,7 +10976,7 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>82</v>
@@ -10897,10 +10990,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10911,7 +11004,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10923,20 +11016,18 @@
         <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>159</v>
+        <v>387</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
@@ -10958,11 +11049,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Y71" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z71" t="s" s="2">
-        <v>503</v>
+        <v>82</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10980,13 +11073,13 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
@@ -11001,7 +11094,7 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>108</v>
+        <v>485</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
@@ -11015,10 +11108,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11029,7 +11122,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -11041,17 +11134,15 @@
         <v>92</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>506</v>
+        <v>387</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11100,13 +11191,13 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
@@ -11121,7 +11212,7 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>108</v>
+        <v>485</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -11135,10 +11226,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11149,7 +11240,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -11161,20 +11252,16 @@
         <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>159</v>
+        <v>479</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
       </c>
@@ -11198,13 +11285,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>516</v>
+        <v>82</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -11222,13 +11309,13 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
@@ -11243,7 +11330,7 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
@@ -11257,10 +11344,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11283,13 +11370,13 @@
         <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11340,7 +11427,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11361,7 +11448,7 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
@@ -11375,10 +11462,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11401,17 +11488,15 @@
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11436,13 +11521,13 @@
         <v>82</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>530</v>
+        <v>493</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>531</v>
+        <v>494</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>82</v>
@@ -11460,7 +11545,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11481,7 +11566,7 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>533</v>
+        <v>496</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
@@ -11495,10 +11580,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11509,7 +11594,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
@@ -11521,16 +11606,16 @@
         <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>535</v>
+        <v>159</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11556,13 +11641,11 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11580,13 +11663,13 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>82</v>
@@ -11601,7 +11684,7 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>542</v>
+        <v>108</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
@@ -11615,10 +11698,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11629,7 +11712,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11641,20 +11724,18 @@
         <v>92</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>239</v>
+        <v>524</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11678,13 +11759,13 @@
         <v>82</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>548</v>
+        <v>82</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>549</v>
+        <v>82</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>82</v>
@@ -11702,13 +11783,13 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>82</v>
@@ -11723,7 +11804,7 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>551</v>
+        <v>108</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>82</v>
@@ -11737,10 +11818,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>552</v>
+        <v>529</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>552</v>
+        <v>529</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11751,7 +11832,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11763,17 +11844,19 @@
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="O78" t="s" s="2">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11798,13 +11881,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11822,13 +11905,13 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>82</v>
@@ -11843,7 +11926,7 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>82</v>
@@ -11857,10 +11940,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11883,20 +11966,16 @@
         <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>239</v>
+        <v>539</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>564</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>82</v>
       </c>
@@ -11920,13 +11999,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>565</v>
+        <v>82</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>566</v>
+        <v>82</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11944,7 +12023,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11965,7 +12044,7 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>82</v>
@@ -11979,10 +12058,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12005,20 +12084,18 @@
         <v>92</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>570</v>
+        <v>239</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -12042,13 +12119,13 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>82</v>
+        <v>548</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>82</v>
+        <v>549</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12066,7 +12143,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12087,7 +12164,7 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>82</v>
@@ -12101,10 +12178,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12127,20 +12204,18 @@
         <v>92</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
       </c>
@@ -12164,13 +12239,13 @@
         <v>82</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>82</v>
+        <v>557</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>82</v>
+        <v>558</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12188,7 +12263,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>582</v>
+        <v>559</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12209,7 +12284,7 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
@@ -12223,10 +12298,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12249,19 +12324,19 @@
         <v>92</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>585</v>
+        <v>239</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12286,13 +12361,13 @@
         <v>82</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>82</v>
+        <v>566</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>82</v>
+        <v>567</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -12310,7 +12385,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12331,7 +12406,7 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>82</v>
@@ -12345,10 +12420,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12371,17 +12446,17 @@
         <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>585</v>
+        <v>239</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12406,13 +12481,13 @@
         <v>82</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>82</v>
+        <v>574</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12430,7 +12505,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12451,7 +12526,7 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>82</v>
@@ -12465,10 +12540,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12491,19 +12566,19 @@
         <v>92</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>598</v>
+        <v>239</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
@@ -12528,13 +12603,13 @@
         <v>82</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>82</v>
+        <v>583</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>82</v>
+        <v>584</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>82</v>
@@ -12552,7 +12627,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12573,7 +12648,7 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
@@ -12587,10 +12662,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12610,19 +12685,23 @@
         <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>299</v>
+        <v>588</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>592</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
@@ -12658,19 +12737,17 @@
         <v>82</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="AC85" s="2"/>
       <c r="AD85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12682,16 +12759,16 @@
         <v>82</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>608</v>
+        <v>82</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>609</v>
+        <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>82</v>
@@ -12705,12 +12782,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="D86" t="s" s="2">
         <v>82</v>
       </c>
@@ -12731,16 +12810,20 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>104</v>
+        <v>596</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>105</v>
+        <v>597</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>592</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
       </c>
@@ -12788,7 +12871,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>107</v>
+        <v>593</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12797,10 +12880,10 @@
         <v>91</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>82</v>
+        <v>600</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>82</v>
+        <v>601</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
@@ -12809,13 +12892,13 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>108</v>
+        <v>602</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>82</v>
+        <v>603</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>82</v>
@@ -12823,21 +12906,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>82</v>
@@ -12846,21 +12929,23 @@
         <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>111</v>
+        <v>605</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>112</v>
+        <v>606</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>113</v>
+        <v>607</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>608</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>609</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
       </c>
@@ -12908,13 +12993,13 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>118</v>
+        <v>610</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>82</v>
@@ -12929,7 +13014,7 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>108</v>
+        <v>611</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>82</v>
@@ -12943,44 +13028,46 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>111</v>
+        <v>596</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>187</v>
+        <v>613</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>309</v>
+        <v>614</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
@@ -13028,13 +13115,13 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>310</v>
+        <v>617</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>82</v>
@@ -13049,7 +13136,7 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>182</v>
+        <v>618</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
@@ -13063,10 +13150,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13086,22 +13173,20 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>418</v>
+        <v>596</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>617</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13150,7 +13235,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13168,10 +13253,10 @@
         <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>619</v>
+        <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
@@ -13185,10 +13270,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13208,21 +13293,23 @@
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
@@ -13270,7 +13357,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13288,16 +13375,16 @@
         <v>82</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>626</v>
+        <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>628</v>
+        <v>82</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>82</v>
@@ -13305,10 +13392,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13331,13 +13418,13 @@
         <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>585</v>
+        <v>299</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13388,7 +13475,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13400,22 +13487,22 @@
         <v>82</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>82</v>
+        <v>635</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>634</v>
+        <v>82</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>82</v>
@@ -13423,10 +13510,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13449,17 +13536,15 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>636</v>
+        <v>104</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>637</v>
+        <v>105</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>639</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13508,7 +13593,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>635</v>
+        <v>107</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13526,10 +13611,10 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>640</v>
+        <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>641</v>
+        <v>108</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
@@ -13543,21 +13628,21 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13569,15 +13654,17 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>321</v>
+        <v>111</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>643</v>
+        <v>112</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13626,13 +13713,13 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>642</v>
+        <v>118</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>82</v>
@@ -13647,55 +13734,57 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>645</v>
+        <v>108</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>333</v>
+        <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>333</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>299</v>
+        <v>111</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>647</v>
+        <v>187</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13744,28 +13833,28 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>646</v>
+        <v>310</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>608</v>
+        <v>82</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>649</v>
+        <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>650</v>
+        <v>182</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>82</v>
@@ -13779,10 +13868,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13805,16 +13894,20 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>104</v>
+        <v>436</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>105</v>
+        <v>642</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+        <v>643</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>645</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
       </c>
@@ -13862,7 +13955,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>107</v>
+        <v>641</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13880,10 +13973,10 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>82</v>
+        <v>646</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>108</v>
+        <v>647</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>82</v>
@@ -13897,21 +13990,21 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>82</v>
@@ -13923,16 +14016,16 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>111</v>
+        <v>649</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>112</v>
+        <v>650</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>113</v>
+        <v>651</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>114</v>
+        <v>652</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13982,13 +14075,13 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>118</v>
+        <v>648</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>82</v>
@@ -14000,16 +14093,16 @@
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>82</v>
+        <v>653</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>108</v>
+        <v>654</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>82</v>
+        <v>655</v>
       </c>
       <c r="AP96" t="s" s="2">
         <v>82</v>
@@ -14017,43 +14110,41 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>111</v>
+        <v>596</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>187</v>
+        <v>657</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -14102,13 +14193,13 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>310</v>
+        <v>656</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>82</v>
@@ -14120,16 +14211,16 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>82</v>
+        <v>659</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>182</v>
+        <v>660</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>82</v>
+        <v>661</v>
       </c>
       <c r="AP97" t="s" s="2">
         <v>82</v>
@@ -14137,10 +14228,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14148,7 +14239,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>91</v>
@@ -14157,22 +14248,22 @@
         <v>82</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14222,10 +14313,10 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>91</v>
@@ -14240,16 +14331,16 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>660</v>
+        <v>82</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>82</v>
@@ -14257,10 +14348,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14283,13 +14374,13 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>239</v>
+        <v>340</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14316,13 +14407,13 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>664</v>
+        <v>82</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>665</v>
+        <v>82</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -14340,7 +14431,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14358,27 +14449,27 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>666</v>
+        <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>82</v>
+        <v>351</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>668</v>
+        <v>82</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>82</v>
+        <v>351</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14401,13 +14492,13 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>670</v>
+        <v>299</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14458,7 +14549,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14470,16 +14561,16 @@
         <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>82</v>
+        <v>635</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>673</v>
+        <v>82</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>82</v>
@@ -14493,21 +14584,21 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>676</v>
+        <v>82</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>82</v>
@@ -14519,13 +14610,13 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>677</v>
+        <v>104</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>678</v>
+        <v>105</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>679</v>
+        <v>106</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14576,13 +14667,13 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>675</v>
+        <v>107</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>82</v>
@@ -14597,7 +14688,7 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>680</v>
+        <v>108</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
@@ -14611,14 +14702,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14637,16 +14728,16 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>682</v>
+        <v>111</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>683</v>
+        <v>112</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>684</v>
+        <v>113</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>685</v>
+        <v>114</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14696,7 +14787,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>681</v>
+        <v>118</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14711,26 +14802,740 @@
         <v>82</v>
       </c>
       <c r="AK102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP103" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="AL102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM102" t="s" s="2">
+      <c r="AN104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO104" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="AN102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP102" t="s" s="2">
+      <c r="AP104" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="AP105" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP106" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP107" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP108" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP102">
+  <autoFilter ref="A1:AP108">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14740,7 +15545,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI101">
+  <conditionalFormatting sqref="A2:AI107">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-med-request-profile.xlsx
+++ b/StructureDefinition-med-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T22:10:16+00:00</t>
+    <t>2023-02-10T09:10:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-request-profile.xlsx
+++ b/StructureDefinition-med-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:10:53+00:00</t>
+    <t>2023-02-16T19:26:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-request-profile.xlsx
+++ b/StructureDefinition-med-request-profile.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$117</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4119" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4459" uniqueCount="762">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T19:26:47+00:00</t>
+    <t>2023-02-16T20:28:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -588,10 +588,165 @@
     <t>MedicationRequest.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:med-prescription-dosage-instruction</t>
+  </si>
+  <si>
+    <t>med-prescription-dosage-instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://spms.min-saude.pt/iop/extensions/med-prescription-dosage-instruction}
+</t>
+  </si>
+  <si>
+    <t>NÚMERO DE VIAS</t>
+  </si>
+  <si>
+    <t>Via da receita no caso de ser renovável (1, 2, 3, ...).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:presc-print</t>
+  </si>
+  <si>
+    <t>presc-print</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://spms.min-saude.pt/iop/extensions/med-prescription-print}
+</t>
+  </si>
+  <si>
+    <t>IMPRESSÃO</t>
+  </si>
+  <si>
+    <t>Indicar se a receita foi impressa</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:presc-administration</t>
+  </si>
+  <si>
+    <t>presc-administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://spms.min-saude.pt/iop/extensions/med-prescription-internal-administration}
+</t>
+  </si>
+  <si>
+    <t>ADMINISTRAÇÃO</t>
+  </si>
+  <si>
+    <t>Indicar se a prescrição é para administração interna ou SFH; true: administração interna; false: SFH</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:presc-transcription</t>
+  </si>
+  <si>
+    <t>presc-transcription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://spms.min-saude.pt/iop/extensions/med-prescription-transcript}
+</t>
+  </si>
+  <si>
+    <t>RECEITA MANUSCRITA</t>
+  </si>
+  <si>
+    <t>Indicar se trata-se de uma transcrição de uma receita manuscrita.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:presc-type</t>
+  </si>
+  <si>
+    <t>presc-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://spms.min-saude.pt/iop/extensions/med-request-type}
+</t>
+  </si>
+  <si>
+    <t>TIPO DE RECEITA</t>
+  </si>
+  <si>
+    <t>Tipo de prescrição: e.g.: FH, RE, BIO ou OUT.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:presc-local</t>
+  </si>
+  <si>
+    <t>presc-local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://spms.min-saude.pt/iop/extensions/med-prescription-local}
+</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>Referência para um resource que contém informações do local de prescrição</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:med-prescription-framing-dispense</t>
+  </si>
+  <si>
+    <t>med-prescription-framing-dispense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://spms.min-saude.pt/iop/extensions/med-prescription-framing-dispense}
+</t>
+  </si>
+  <si>
+    <t>Tipo enquadramento</t>
+  </si>
+  <si>
+    <t>Extensões referentes ao enquadramento da dispensa</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:med-prescription-cancel-reason</t>
+  </si>
+  <si>
+    <t>med-prescription-cancel-reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://spms.min-saude.pt/iop/extensions/med-prescription-cancel-reason}
+</t>
+  </si>
+  <si>
+    <t>MOTIVO ANULAÇÃO</t>
+  </si>
+  <si>
+    <t>Motivo de anulação da receita.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:med-cost</t>
+  </si>
+  <si>
+    <t>med-cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://spms.min-saude.pt/iop/extensions/med-cost}
+</t>
+  </si>
+  <si>
+    <t>Custo</t>
+  </si>
+  <si>
+    <t>Extensão referente ao valor e a moeda da terapêutica</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -1890,10 +2045,6 @@
   </si>
   <si>
     <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
@@ -2566,7 +2717,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP108"/>
+  <dimension ref="A1:AP117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2577,7 +2728,7 @@
   <cols>
     <col min="1" max="1" width="81.1875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="68.05859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="34.48828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2585,7 +2736,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.1015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4429,7 +4580,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4439,7 +4590,7 @@
         <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>82</v>
@@ -4451,14 +4602,12 @@
         <v>111</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4495,19 +4644,17 @@
         <v>82</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4528,7 +4675,7 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>82</v>
@@ -4542,43 +4689,43 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="D17" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -4627,7 +4774,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4636,10 +4783,10 @@
         <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
@@ -4648,7 +4795,7 @@
         <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>82</v>
@@ -4662,12 +4809,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>82</v>
       </c>
@@ -4676,7 +4825,7 @@
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>82</v>
@@ -4688,13 +4837,13 @@
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4745,7 +4894,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4754,28 +4903,28 @@
         <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>197</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" hidden="true">
@@ -4783,9 +4932,11 @@
         <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>82</v>
       </c>
@@ -4794,7 +4945,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>82</v>
@@ -4803,16 +4954,16 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4863,7 +5014,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4872,19 +5023,19 @@
         <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>82</v>
@@ -4898,12 +5049,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>82</v>
       </c>
@@ -4912,7 +5065,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>82</v>
@@ -4921,7 +5074,7 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>206</v>
@@ -4981,7 +5134,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4990,19 +5143,19 @@
         <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>82</v>
@@ -5016,12 +5169,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>82</v>
       </c>
@@ -5039,10 +5194,10 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>212</v>
@@ -5051,9 +5206,7 @@
         <v>213</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>214</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>82</v>
       </c>
@@ -5101,28 +5254,28 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>82</v>
@@ -5136,12 +5289,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>82</v>
       </c>
@@ -5156,23 +5311,21 @@
         <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>220</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -5197,13 +5350,13 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -5221,53 +5374,55 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>227</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>91</v>
@@ -5276,23 +5431,21 @@
         <v>82</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5302,7 +5455,7 @@
         <v>82</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>82</v>
@@ -5317,13 +5470,13 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>234</v>
+        <v>82</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
@@ -5341,47 +5494,49 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>237</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>82</v>
       </c>
@@ -5402,13 +5557,13 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5435,13 +5590,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>244</v>
+        <v>82</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5459,47 +5614,49 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>237</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>82</v>
       </c>
@@ -5517,16 +5674,16 @@
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5553,13 +5710,13 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -5577,77 +5734,77 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>254</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>111</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>259</v>
+        <v>114</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5697,13 +5854,13 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>82</v>
@@ -5712,30 +5869,30 @@
         <v>82</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>261</v>
+        <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>262</v>
+        <v>182</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5743,32 +5900,30 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5817,13 +5972,13 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>82</v>
@@ -5832,30 +5987,30 @@
         <v>82</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>273</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5866,7 +6021,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5875,20 +6030,18 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5937,13 +6090,13 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
@@ -5952,30 +6105,30 @@
         <v>82</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5995,16 +6148,16 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -6055,7 +6208,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -6070,30 +6223,30 @@
         <v>82</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6101,7 +6254,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>91</v>
@@ -6116,16 +6269,18 @@
         <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
@@ -6173,7 +6328,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6188,30 +6343,30 @@
         <v>82</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6228,21 +6383,23 @@
         <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6267,13 +6424,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>82</v>
+        <v>270</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -6291,7 +6448,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6303,33 +6460,33 @@
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>304</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6337,7 +6494,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>91</v>
@@ -6346,21 +6503,23 @@
         <v>82</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>105</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -6370,7 +6529,7 @@
         <v>82</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>82</v>
+        <v>280</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>82</v>
@@ -6385,13 +6544,13 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>82</v>
@@ -6409,10 +6568,10 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>91</v>
@@ -6424,41 +6583,41 @@
         <v>82</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>82</v>
+        <v>283</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -6470,17 +6629,15 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>111</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>112</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6505,13 +6662,13 @@
         <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>82</v>
+        <v>291</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>82</v>
@@ -6529,13 +6686,13 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>118</v>
+        <v>286</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
@@ -6547,60 +6704,58 @@
         <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>108</v>
+        <v>294</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>187</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6625,13 +6780,13 @@
         <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>82</v>
+        <v>298</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>82</v>
+        <v>299</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
@@ -6649,13 +6804,13 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
@@ -6664,30 +6819,30 @@
         <v>82</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>182</v>
+        <v>301</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>82</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6710,16 +6865,16 @@
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6769,7 +6924,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>91</v>
@@ -6784,30 +6939,30 @@
         <v>82</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>82</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6815,30 +6970,32 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>104</v>
+        <v>314</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6887,10 +7044,10 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>107</v>
+        <v>313</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>91</v>
@@ -6902,41 +7059,41 @@
         <v>82</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>82</v>
+        <v>322</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6948,16 +7105,16 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>111</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>112</v>
+        <v>325</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>113</v>
+        <v>326</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>114</v>
+        <v>327</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6995,25 +7152,25 @@
         <v>82</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>118</v>
+        <v>323</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
@@ -7022,30 +7179,30 @@
         <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>108</v>
+        <v>329</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7056,7 +7213,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -7065,20 +7222,18 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>104</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -7127,16 +7282,16 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>327</v>
+        <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>82</v>
@@ -7148,24 +7303,24 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>182</v>
+        <v>336</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7173,7 +7328,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>91</v>
@@ -7188,17 +7343,15 @@
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>191</v>
+        <v>338</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7247,7 +7400,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7262,30 +7415,30 @@
         <v>82</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>82</v>
+        <v>344</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>82</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7308,17 +7461,15 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>104</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7367,7 +7518,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7379,33 +7530,33 @@
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>82</v>
+        <v>351</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>182</v>
+        <v>320</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>82</v>
+        <v>352</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>82</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7425,21 +7576,19 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>340</v>
+        <v>104</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>341</v>
+        <v>105</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>342</v>
+        <v>106</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>343</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7487,7 +7636,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>339</v>
+        <v>107</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7496,19 +7645,19 @@
         <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>346</v>
+        <v>108</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>82</v>
@@ -7522,21 +7671,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -7548,15 +7697,17 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>312</v>
+        <v>111</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>348</v>
+        <v>112</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7605,13 +7756,13 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>347</v>
+        <v>118</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
@@ -7626,28 +7777,28 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>350</v>
+        <v>108</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>351</v>
+        <v>82</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>351</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7660,22 +7811,22 @@
         <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>239</v>
+        <v>111</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>353</v>
+        <v>235</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>355</v>
+        <v>114</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7701,13 +7852,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>357</v>
+        <v>82</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7725,7 +7876,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7740,30 +7891,30 @@
         <v>82</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>358</v>
+        <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>360</v>
+        <v>182</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>361</v>
+        <v>82</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>361</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7771,10 +7922,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7783,19 +7934,19 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7845,13 +7996,13 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
@@ -7860,30 +8011,30 @@
         <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>225</v>
+        <v>365</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>361</v>
+        <v>82</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>361</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7894,7 +8045,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7906,13 +8057,13 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>371</v>
+        <v>104</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>372</v>
+        <v>105</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>373</v>
+        <v>106</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7963,13 +8114,13 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>370</v>
+        <v>107</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
@@ -7978,13 +8129,13 @@
         <v>82</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>376</v>
+        <v>108</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>82</v>
@@ -7998,14 +8149,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -8024,16 +8175,16 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>111</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>112</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
+        <v>113</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>381</v>
+        <v>114</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8071,19 +8222,19 @@
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>377</v>
+        <v>118</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -8098,13 +8249,13 @@
         <v>82</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>382</v>
+        <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>383</v>
+        <v>108</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>82</v>
@@ -8118,10 +8269,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8141,18 +8292,20 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>104</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>105</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -8201,7 +8354,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>107</v>
+        <v>374</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8210,7 +8363,7 @@
         <v>91</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>82</v>
@@ -8222,7 +8375,7 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>82</v>
@@ -8236,21 +8389,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -8259,19 +8412,19 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>112</v>
+        <v>377</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>113</v>
+        <v>378</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>114</v>
+        <v>379</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8309,25 +8462,25 @@
         <v>82</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>118</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
@@ -8342,7 +8495,7 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>108</v>
+        <v>381</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>82</v>
@@ -8356,10 +8509,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8382,18 +8535,18 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>387</v>
+        <v>104</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
@@ -8441,7 +8594,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8462,7 +8615,7 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>392</v>
+        <v>182</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>82</v>
@@ -8476,10 +8629,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8502,17 +8655,17 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>104</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8561,7 +8714,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8570,19 +8723,19 @@
         <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>82</v>
@@ -8596,10 +8749,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8610,7 +8763,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -8619,21 +8772,19 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>239</v>
+        <v>360</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8657,13 +8808,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>403</v>
+        <v>82</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8681,13 +8832,13 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
@@ -8702,24 +8853,24 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8730,7 +8881,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8739,18 +8890,20 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>104</v>
+        <v>287</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8775,13 +8928,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>82</v>
+        <v>404</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>82</v>
+        <v>405</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8799,45 +8952,45 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="AN52" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>82</v>
+        <v>410</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8848,7 +9001,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>82</v>
@@ -8857,23 +9010,21 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8921,13 +9072,13 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
@@ -8936,30 +9087,30 @@
         <v>82</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>82</v>
+        <v>416</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8970,7 +9121,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8982,13 +9133,13 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>104</v>
+        <v>419</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>105</v>
+        <v>420</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>106</v>
+        <v>421</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -9039,13 +9190,13 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>107</v>
+        <v>418</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
@@ -9054,13 +9205,13 @@
         <v>82</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>108</v>
+        <v>424</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>82</v>
@@ -9074,14 +9225,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -9100,16 +9251,16 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>111</v>
+        <v>426</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>112</v>
+        <v>427</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>113</v>
+        <v>428</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>114</v>
+        <v>429</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9147,19 +9298,19 @@
         <v>82</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>118</v>
+        <v>425</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9174,13 +9325,13 @@
         <v>82</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>82</v>
+        <v>430</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>108</v>
+        <v>431</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>82</v>
@@ -9194,10 +9345,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9208,7 +9359,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -9217,21 +9368,19 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>290</v>
+        <v>104</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>420</v>
+        <v>105</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>421</v>
+        <v>106</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>422</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>82</v>
       </c>
@@ -9279,13 +9428,13 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>423</v>
+        <v>107</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
@@ -9300,7 +9449,7 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>424</v>
+        <v>108</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>82</v>
@@ -9314,21 +9463,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
@@ -9337,21 +9486,21 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>426</v>
+        <v>111</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>427</v>
+        <v>112</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>82</v>
       </c>
@@ -9387,31 +9536,31 @@
         <v>82</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>430</v>
+        <v>118</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>431</v>
+        <v>82</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -9420,7 +9569,7 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>432</v>
+        <v>108</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>82</v>
@@ -9434,10 +9583,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9457,19 +9606,21 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>104</v>
+        <v>435</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>105</v>
+        <v>436</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>106</v>
+        <v>437</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
@@ -9517,7 +9668,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>107</v>
+        <v>439</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9538,7 +9689,7 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>108</v>
+        <v>440</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>82</v>
@@ -9552,21 +9703,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9575,21 +9726,21 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>112</v>
+        <v>442</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9625,25 +9776,25 @@
         <v>82</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>118</v>
+        <v>445</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
@@ -9658,7 +9809,7 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>108</v>
+        <v>440</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>82</v>
@@ -9672,10 +9823,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9686,7 +9837,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9698,16 +9849,18 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>436</v>
+        <v>287</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9731,50 +9884,52 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AC60" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>82</v>
@@ -9788,14 +9943,12 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9816,13 +9969,13 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>436</v>
+        <v>104</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9873,7 +10026,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9894,7 +10047,7 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>82</v>
@@ -9908,10 +10061,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9931,19 +10084,23 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>104</v>
+        <v>458</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>105</v>
+        <v>459</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9991,7 +10148,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>107</v>
+        <v>463</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -10012,7 +10169,7 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>108</v>
+        <v>464</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>82</v>
@@ -10026,21 +10183,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -10052,17 +10209,15 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -10099,25 +10254,25 @@
         <v>82</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
@@ -10146,21 +10301,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -10169,19 +10324,19 @@
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>290</v>
+        <v>111</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>451</v>
+        <v>112</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>452</v>
+        <v>113</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>453</v>
+        <v>114</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10219,28 +10374,28 @@
         <v>82</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>454</v>
+        <v>118</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>82</v>
@@ -10252,13 +10407,13 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>456</v>
+        <v>108</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>457</v>
+        <v>82</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -10266,10 +10421,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10280,7 +10435,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -10292,24 +10447,22 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q65" t="s" s="2">
-        <v>463</v>
-      </c>
+      <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
         <v>82</v>
       </c>
@@ -10353,16 +10506,16 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>82</v>
@@ -10374,13 +10527,13 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>82</v>
@@ -10388,10 +10541,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10414,19 +10567,17 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>387</v>
+        <v>474</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10475,7 +10626,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10487,7 +10638,7 @@
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
@@ -10496,7 +10647,7 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>82</v>
@@ -10510,10 +10661,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10533,16 +10684,16 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>387</v>
+        <v>104</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>475</v>
+        <v>105</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>476</v>
+        <v>106</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10593,7 +10744,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>477</v>
+        <v>107</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10614,7 +10765,7 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>473</v>
+        <v>108</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
@@ -10628,21 +10779,21 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10651,23 +10802,21 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>479</v>
+        <v>111</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>480</v>
+        <v>112</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>481</v>
+        <v>113</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10703,25 +10852,25 @@
         <v>82</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>484</v>
+        <v>118</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
@@ -10736,7 +10885,7 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>485</v>
+        <v>108</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
@@ -10750,10 +10899,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10776,20 +10925,16 @@
         <v>92</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10825,16 +10970,14 @@
         <v>82</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="AC69" s="2"/>
       <c r="AD69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>82</v>
+        <v>488</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>489</v>
@@ -10858,7 +11001,7 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>82</v>
@@ -10872,12 +11015,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>82</v>
       </c>
@@ -10898,13 +11043,13 @@
         <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>159</v>
+        <v>484</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10931,13 +11076,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>493</v>
+        <v>82</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>494</v>
+        <v>82</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10955,7 +11100,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10976,7 +11121,7 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>82</v>
@@ -10990,10 +11135,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11013,21 +11158,21 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>387</v>
+        <v>104</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>498</v>
+        <v>105</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>499</v>
+        <v>106</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
@@ -11073,7 +11218,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>500</v>
+        <v>107</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11094,7 +11239,7 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>485</v>
+        <v>108</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
@@ -11108,21 +11253,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -11131,18 +11276,20 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>387</v>
+        <v>111</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>502</v>
+        <v>112</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11179,25 +11326,25 @@
         <v>82</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>504</v>
+        <v>118</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
@@ -11212,7 +11359,7 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>485</v>
+        <v>108</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -11226,10 +11373,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11252,15 +11399,17 @@
         <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>479</v>
+        <v>338</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11309,7 +11458,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11318,7 +11467,7 @@
         <v>91</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>82</v>
+        <v>503</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>82</v>
@@ -11330,13 +11479,13 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>82</v>
+        <v>505</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>82</v>
@@ -11344,10 +11493,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11370,20 +11519,24 @@
         <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>479</v>
+        <v>338</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="R74" t="s" s="2">
         <v>82</v>
       </c>
@@ -11436,7 +11589,7 @@
         <v>91</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>82</v>
+        <v>503</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>82</v>
@@ -11448,13 +11601,13 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>82</v>
+        <v>514</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>82</v>
@@ -11462,10 +11615,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11488,16 +11641,20 @@
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>159</v>
+        <v>435</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11521,13 +11678,13 @@
         <v>82</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>493</v>
+        <v>82</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>494</v>
+        <v>82</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>82</v>
@@ -11545,7 +11702,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11566,7 +11723,7 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
@@ -11580,10 +11737,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11594,7 +11751,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>82</v>
@@ -11606,17 +11763,15 @@
         <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>159</v>
+        <v>435</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11641,50 +11796,52 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Y76" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
@@ -11698,10 +11855,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11712,7 +11869,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11724,18 +11881,20 @@
         <v>92</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11783,13 +11942,13 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>82</v>
@@ -11804,7 +11963,7 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>108</v>
+        <v>533</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>82</v>
@@ -11818,10 +11977,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11832,7 +11991,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11844,19 +12003,19 @@
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>159</v>
+        <v>527</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N78" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11881,13 +12040,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>535</v>
+        <v>82</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11905,13 +12064,13 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>82</v>
@@ -11926,7 +12085,7 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>82</v>
@@ -11966,13 +12125,13 @@
         <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11999,13 +12158,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>82</v>
+        <v>541</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>82</v>
+        <v>542</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -12023,7 +12182,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12044,7 +12203,7 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>82</v>
@@ -12058,10 +12217,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12084,20 +12243,18 @@
         <v>92</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>239</v>
+        <v>435</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N80" t="s" s="2">
         <v>547</v>
       </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" t="s" s="2">
@@ -12119,31 +12276,31 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF80" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12164,7 +12321,7 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>82</v>
@@ -12178,10 +12335,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12204,17 +12361,15 @@
         <v>92</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>553</v>
+        <v>435</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>556</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12239,13 +12394,13 @@
         <v>82</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>557</v>
+        <v>82</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>558</v>
+        <v>82</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>82</v>
@@ -12263,7 +12418,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12284,7 +12439,7 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
@@ -12298,10 +12453,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12324,20 +12479,16 @@
         <v>92</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>239</v>
+        <v>527</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
@@ -12361,13 +12512,13 @@
         <v>82</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>566</v>
+        <v>82</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>567</v>
+        <v>82</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -12385,7 +12536,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12406,7 +12557,7 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>82</v>
@@ -12420,10 +12571,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12446,18 +12597,16 @@
         <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>239</v>
+        <v>527</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>573</v>
-      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12481,13 +12630,13 @@
         <v>82</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>574</v>
+        <v>82</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>575</v>
+        <v>82</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12505,7 +12654,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12526,7 +12675,7 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>577</v>
+        <v>533</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>82</v>
@@ -12540,10 +12689,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12566,20 +12715,16 @@
         <v>92</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>582</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12603,13 +12748,13 @@
         <v>82</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>583</v>
+        <v>541</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>584</v>
+        <v>542</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>82</v>
@@ -12627,7 +12772,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12648,7 +12793,7 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>586</v>
+        <v>544</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
@@ -12662,10 +12807,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12676,7 +12821,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>82</v>
@@ -12688,20 +12833,18 @@
         <v>92</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>588</v>
+        <v>159</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
@@ -12725,35 +12868,35 @@
         <v>82</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>82</v>
+        <v>569</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AC85" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>593</v>
+        <v>570</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>82</v>
@@ -12768,7 +12911,7 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>586</v>
+        <v>108</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>82</v>
@@ -12782,14 +12925,12 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
         <v>82</v>
       </c>
@@ -12798,7 +12939,7 @@
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>82</v>
@@ -12807,23 +12948,21 @@
         <v>82</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>82</v>
       </c>
@@ -12871,19 +13010,19 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>600</v>
+        <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>601</v>
+        <v>82</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
@@ -12892,13 +13031,13 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>602</v>
+        <v>108</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>603</v>
+        <v>82</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>82</v>
@@ -12906,10 +13045,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>604</v>
+        <v>577</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>604</v>
+        <v>577</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12920,7 +13059,7 @@
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>82</v>
@@ -12932,19 +13071,19 @@
         <v>92</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>605</v>
+        <v>159</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>608</v>
+        <v>580</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12969,13 +13108,13 @@
         <v>82</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>82</v>
+        <v>583</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12993,13 +13132,13 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>82</v>
@@ -13014,7 +13153,7 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>82</v>
@@ -13028,10 +13167,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13054,20 +13193,16 @@
         <v>92</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>616</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
@@ -13115,7 +13250,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13136,7 +13271,7 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>618</v>
+        <v>591</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
@@ -13150,10 +13285,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>619</v>
+        <v>592</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>619</v>
+        <v>592</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13176,18 +13311,18 @@
         <v>92</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>596</v>
+        <v>287</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>620</v>
+        <v>593</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>622</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -13211,13 +13346,13 @@
         <v>82</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>82</v>
+        <v>596</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>82</v>
+        <v>597</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>82</v>
@@ -13235,7 +13370,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13256,7 +13391,7 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
@@ -13270,10 +13405,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13296,20 +13431,18 @@
         <v>92</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
@@ -13333,13 +13466,13 @@
         <v>82</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>82</v>
+        <v>605</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>82</v>
+        <v>606</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -13357,7 +13490,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13378,7 +13511,7 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
@@ -13392,10 +13525,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13415,19 +13548,23 @@
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+        <v>611</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>613</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
       </c>
@@ -13451,13 +13588,13 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>82</v>
+        <v>614</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>82</v>
+        <v>615</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13475,7 +13612,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13487,16 +13624,16 @@
         <v>82</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>635</v>
+        <v>82</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>636</v>
+        <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
@@ -13510,10 +13647,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13533,19 +13670,21 @@
         <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>104</v>
+        <v>287</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>105</v>
+        <v>619</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>106</v>
+        <v>620</v>
       </c>
       <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>621</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13569,13 +13708,13 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>82</v>
+        <v>622</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>82</v>
+        <v>623</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13593,7 +13732,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>107</v>
+        <v>624</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13614,7 +13753,7 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>108</v>
+        <v>625</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
@@ -13628,21 +13767,21 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13651,21 +13790,23 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>111</v>
+        <v>287</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>112</v>
+        <v>627</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>113</v>
+        <v>628</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>629</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
@@ -13689,13 +13830,13 @@
         <v>82</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>82</v>
+        <v>631</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>82</v>
+        <v>632</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>82</v>
@@ -13713,13 +13854,13 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>118</v>
+        <v>633</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>82</v>
@@ -13734,7 +13875,7 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>108</v>
+        <v>634</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
@@ -13748,44 +13889,46 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>111</v>
+        <v>636</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>187</v>
+        <v>637</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>309</v>
+        <v>638</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>639</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>640</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
@@ -13821,25 +13964,23 @@
         <v>82</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>82</v>
+        <v>488</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>310</v>
+        <v>641</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>82</v>
@@ -13854,7 +13995,7 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>182</v>
+        <v>634</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>82</v>
@@ -13868,12 +14009,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>643</v>
+      </c>
       <c r="D95" t="s" s="2">
         <v>82</v>
       </c>
@@ -13894,19 +14037,19 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>436</v>
+        <v>644</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13964,25 +14107,25 @@
         <v>91</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>82</v>
+        <v>648</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>646</v>
+        <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>82</v>
+        <v>650</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>82</v>
@@ -13990,10 +14133,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14013,21 +14156,23 @@
         <v>82</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
@@ -14075,7 +14220,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14093,16 +14238,16 @@
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>653</v>
+        <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>655</v>
+        <v>82</v>
       </c>
       <c r="AP96" t="s" s="2">
         <v>82</v>
@@ -14110,10 +14255,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14133,19 +14278,23 @@
         <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>596</v>
+        <v>644</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+        <v>661</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
@@ -14193,7 +14342,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14211,16 +14360,16 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>659</v>
+        <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>661</v>
+        <v>82</v>
       </c>
       <c r="AP97" t="s" s="2">
         <v>82</v>
@@ -14228,10 +14377,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14251,21 +14400,21 @@
         <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>668</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>669</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
       </c>
@@ -14313,7 +14462,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14331,10 +14480,10 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>667</v>
+        <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
@@ -14348,10 +14497,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14371,19 +14520,23 @@
         <v>82</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>340</v>
+        <v>672</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+        <v>674</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>676</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
@@ -14431,7 +14584,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14452,24 +14605,24 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>351</v>
+        <v>82</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>351</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14492,13 +14645,13 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14549,7 +14702,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14561,16 +14714,16 @@
         <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>635</v>
+        <v>682</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>82</v>
@@ -14584,10 +14737,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14702,10 +14855,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14822,14 +14975,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14851,10 +15004,10 @@
         <v>111</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="N103" t="s" s="2">
         <v>114</v>
@@ -14907,7 +15060,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14942,10 +15095,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14953,7 +15106,7 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>91</v>
@@ -14962,24 +15115,26 @@
         <v>82</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>682</v>
+        <v>484</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="O104" s="2"/>
+        <v>691</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>692</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
       </c>
@@ -15027,10 +15182,10 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>91</v>
@@ -15045,16 +15200,16 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>687</v>
+        <v>82</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15062,10 +15217,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15088,15 +15243,17 @@
         <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>239</v>
+        <v>696</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>698</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>699</v>
+      </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15121,13 +15278,13 @@
         <v>82</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>691</v>
+        <v>82</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>692</v>
+        <v>82</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>82</v>
@@ -15145,7 +15302,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15163,16 +15320,16 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15180,10 +15337,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15206,13 +15363,13 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>697</v>
+        <v>644</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15263,7 +15420,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15278,19 +15435,19 @@
         <v>82</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>700</v>
+        <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>82</v>
+        <v>708</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>82</v>
@@ -15298,21 +15455,21 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>703</v>
+        <v>82</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>82</v>
@@ -15324,15 +15481,17 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>712</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>713</v>
+      </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15381,13 +15540,13 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>82</v>
@@ -15399,10 +15558,10 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>82</v>
+        <v>714</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>82</v>
@@ -15416,10 +15575,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15430,7 +15589,7 @@
         <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>82</v>
@@ -15442,17 +15601,15 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>709</v>
+        <v>388</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>712</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15501,41 +15658,1111 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH108" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP108" t="s" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP109" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP110" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G111" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AI108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP108" t="s" s="2">
+      <c r="H111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP111" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O112" s="2"/>
+      <c r="P112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP112" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="AP113" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="AP114" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP115" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP116" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="O117" s="2"/>
+      <c r="P117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP117" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP108">
+  <autoFilter ref="A1:AP117">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15545,7 +16772,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI107">
+  <conditionalFormatting sqref="A2:AI116">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-med-request-profile.xlsx
+++ b/StructureDefinition-med-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T20:28:10+00:00</t>
+    <t>2023-02-16T21:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -607,10 +607,10 @@
 </t>
   </si>
   <si>
-    <t>NÚMERO DE VIAS</t>
-  </si>
-  <si>
-    <t>Via da receita no caso de ser renovável (1, 2, 3, ...).</t>
+    <t>FREQ+HORÁRIO</t>
+  </si>
+  <si>
+    <t>Extensões referentes a frequência e horário de toma do medicamento e a duração de tratamento da posologia em valor e unidade.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/StructureDefinition-med-request-profile.xlsx
+++ b/StructureDefinition-med-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T21:17:23+00:00</t>
+    <t>2023-02-16T21:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
